--- a/Code/Results/Cases/Case_3_78/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_78/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.36557037516009</v>
+        <v>20.11250033429948</v>
       </c>
       <c r="C2">
-        <v>13.63702097239764</v>
+        <v>7.686099520365063</v>
       </c>
       <c r="D2">
-        <v>10.3918430670579</v>
+        <v>9.91673279530918</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.89410302872387</v>
+        <v>51.96771528803502</v>
       </c>
       <c r="G2">
-        <v>2.089135095095856</v>
+        <v>3.721937179831112</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.662245803926853</v>
+        <v>10.50928741664509</v>
       </c>
       <c r="M2">
-        <v>12.64202569506638</v>
+        <v>17.60381300096119</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.78206964106986</v>
+        <v>19.89029251911209</v>
       </c>
       <c r="C3">
-        <v>12.7297065148898</v>
+        <v>7.261925906960638</v>
       </c>
       <c r="D3">
-        <v>9.972536799122709</v>
+        <v>9.79250606301763</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>60.22953978476048</v>
+        <v>50.81244701226309</v>
       </c>
       <c r="G3">
-        <v>2.1041648991845</v>
+        <v>3.726795783208224</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.588650691900444</v>
+        <v>10.51759085995673</v>
       </c>
       <c r="M3">
-        <v>12.15371452074593</v>
+        <v>17.5966123249732</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.81681226278805</v>
+        <v>19.76188042726407</v>
       </c>
       <c r="C4">
-        <v>12.15291063504847</v>
+        <v>6.987130205838539</v>
       </c>
       <c r="D4">
-        <v>9.713111544908372</v>
+        <v>9.715481633371384</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>57.92790677361688</v>
+        <v>50.09666155632586</v>
       </c>
       <c r="G4">
-        <v>2.113520192378934</v>
+        <v>3.729927666195253</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.546705164855536</v>
+        <v>10.52400068067035</v>
       </c>
       <c r="M4">
-        <v>11.85936052299942</v>
+        <v>17.59715256206053</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.45251610268878</v>
+        <v>19.7116376339409</v>
       </c>
       <c r="C5">
-        <v>11.9126951278492</v>
+        <v>6.871564464818217</v>
       </c>
       <c r="D5">
-        <v>9.60688406951188</v>
+        <v>9.683920851796305</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>56.97715372957393</v>
+        <v>49.80368241409713</v>
       </c>
       <c r="G5">
-        <v>2.117370442222356</v>
+        <v>3.731241490870063</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.530397734277921</v>
+        <v>10.52694238790338</v>
       </c>
       <c r="M5">
-        <v>11.74085281004902</v>
+        <v>17.598620047257</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.39172400196654</v>
+        <v>19.70342274772607</v>
       </c>
       <c r="C6">
-        <v>11.87248995949528</v>
+        <v>6.85215924131874</v>
       </c>
       <c r="D6">
-        <v>9.589214248223655</v>
+        <v>9.678670231287166</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>56.81851658040639</v>
+        <v>49.75496533927074</v>
       </c>
       <c r="G6">
-        <v>2.118012224517668</v>
+        <v>3.731461923778028</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.527736524355094</v>
+        <v>10.52745076178379</v>
       </c>
       <c r="M6">
-        <v>11.72126430541665</v>
+        <v>17.59893903274946</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.81191954678902</v>
+        <v>19.76119430213284</v>
       </c>
       <c r="C7">
-        <v>12.14969217842219</v>
+        <v>6.985586120778284</v>
       </c>
       <c r="D7">
-        <v>9.711680992249207</v>
+        <v>9.715056672375741</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>57.91513612041796</v>
+        <v>50.092715119628</v>
       </c>
       <c r="G7">
-        <v>2.113571957336015</v>
+        <v>3.729945232601296</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.546482093482055</v>
+        <v>10.52403901900063</v>
       </c>
       <c r="M7">
-        <v>11.85775633419744</v>
+        <v>17.59716730364183</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.82717666527435</v>
+        <v>20.03426025848445</v>
       </c>
       <c r="C8">
-        <v>13.32812827752394</v>
+        <v>7.542835618441038</v>
       </c>
       <c r="D8">
-        <v>10.24765999363624</v>
+        <v>9.874064151512286</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.64128273454834</v>
+        <v>51.57091136640102</v>
       </c>
       <c r="G8">
-        <v>2.094294834288284</v>
+        <v>3.723581670176031</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.636178814848481</v>
+        <v>10.51187818208165</v>
       </c>
       <c r="M8">
-        <v>12.4725538794209</v>
+        <v>17.60030054677172</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.58423790489874</v>
+        <v>20.63015704556861</v>
       </c>
       <c r="C9">
-        <v>15.49445399892326</v>
+        <v>8.520993245698568</v>
       </c>
       <c r="D9">
-        <v>11.28496880913762</v>
+        <v>10.17925809528017</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.50650233541182</v>
+        <v>54.40460394223113</v>
       </c>
       <c r="G9">
-        <v>2.05718996464575</v>
+        <v>3.712274693924177</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.839278110572224</v>
+        <v>10.49844196832769</v>
       </c>
       <c r="M9">
-        <v>13.8076879560178</v>
+        <v>17.6457874711233</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.19547276738428</v>
+        <v>21.10014426433285</v>
       </c>
       <c r="C10">
-        <v>17.01805546797531</v>
+        <v>9.169186193110958</v>
       </c>
       <c r="D10">
-        <v>12.04349249023499</v>
+        <v>10.39855380416054</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>77.80347655788941</v>
+        <v>56.4292538686699</v>
       </c>
       <c r="G10">
-        <v>2.02984577800005</v>
+        <v>3.704671017659172</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.007459318712265</v>
+        <v>10.49492369243238</v>
       </c>
       <c r="M10">
-        <v>15.23996264215906</v>
+        <v>17.70310477664869</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.35818675537555</v>
+        <v>21.31989421058617</v>
       </c>
       <c r="C11">
-        <v>17.70222464126791</v>
+        <v>9.448727180373487</v>
       </c>
       <c r="D11">
-        <v>12.38957661475023</v>
+        <v>10.49706062845613</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.63375823808398</v>
+        <v>57.33447581630631</v>
       </c>
       <c r="G11">
-        <v>2.017246744525119</v>
+        <v>3.701362336983529</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.088740497275284</v>
+        <v>10.49470318562387</v>
       </c>
       <c r="M11">
-        <v>15.87425527782366</v>
+        <v>17.73433177721548</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.79562787991742</v>
+        <v>21.4038737753455</v>
       </c>
       <c r="C12">
-        <v>17.9606315085223</v>
+        <v>9.552378483493515</v>
       </c>
       <c r="D12">
-        <v>12.5209898251652</v>
+        <v>10.53416720122992</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>81.7021184296389</v>
+        <v>57.67472618076892</v>
       </c>
       <c r="G12">
-        <v>2.012438146868262</v>
+        <v>3.700130851863539</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.120273792485329</v>
+        <v>10.49481803799345</v>
       </c>
       <c r="M12">
-        <v>16.11237203029896</v>
+        <v>17.74689290048116</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.70153004264388</v>
+        <v>21.38575469456608</v>
       </c>
       <c r="C13">
-        <v>17.90499777134778</v>
+        <v>9.530153370086971</v>
       </c>
       <c r="D13">
-        <v>12.49266766753322</v>
+        <v>10.52618459357551</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.47215042651018</v>
+        <v>57.60156406398627</v>
       </c>
       <c r="G13">
-        <v>2.013475701984415</v>
+        <v>3.700395123327609</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.113447779184051</v>
+        <v>10.49478448259094</v>
       </c>
       <c r="M13">
-        <v>16.06117437663486</v>
+        <v>17.74415498527406</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.39422751481785</v>
+        <v>21.32678844781221</v>
       </c>
       <c r="C14">
-        <v>17.72349345800793</v>
+        <v>9.457298820022446</v>
       </c>
       <c r="D14">
-        <v>12.40037944390927</v>
+        <v>10.50011742221845</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>80.72171084219741</v>
+        <v>57.36252072913862</v>
       </c>
       <c r="G14">
-        <v>2.016851986411942</v>
+        <v>3.701260593227172</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.091319215567503</v>
+        <v>10.4947086599773</v>
       </c>
       <c r="M14">
-        <v>15.89388429855284</v>
+        <v>17.7353504662911</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.20564974330951</v>
+        <v>21.29076685281508</v>
       </c>
       <c r="C15">
-        <v>17.61224948757985</v>
+        <v>9.412386186359567</v>
       </c>
       <c r="D15">
-        <v>12.34390424768749</v>
+        <v>10.48412456284185</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.26165401461192</v>
+        <v>57.2157617603777</v>
       </c>
       <c r="G15">
-        <v>2.018914675785576</v>
+        <v>3.701793505713792</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.077865245279027</v>
+        <v>10.49468804446876</v>
       </c>
       <c r="M15">
-        <v>15.79115725529672</v>
+        <v>17.73005315057601</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.11904213803352</v>
+        <v>21.08589508882798</v>
       </c>
       <c r="C16">
-        <v>16.97321312309692</v>
+        <v>9.150609000054907</v>
       </c>
       <c r="D16">
-        <v>12.02091244224474</v>
+        <v>10.39208960051328</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.61794182645501</v>
+        <v>56.36975442279991</v>
       </c>
       <c r="G16">
-        <v>2.030664750170184</v>
+        <v>3.704890257163702</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.00224892491849</v>
+        <v>10.49496586564621</v>
       </c>
       <c r="M16">
-        <v>15.1981958610041</v>
+        <v>17.7011673164892</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.44649521497899</v>
+        <v>20.96167262937741</v>
       </c>
       <c r="C17">
-        <v>16.57929488465734</v>
+        <v>8.986090426329033</v>
       </c>
       <c r="D17">
-        <v>11.82316253627202</v>
+        <v>10.33529712787448</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>75.98828560479861</v>
+        <v>55.84651463153186</v>
       </c>
       <c r="G17">
-        <v>2.037822528182594</v>
+        <v>3.70682838197104</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.957127409838135</v>
+        <v>10.49548970112106</v>
       </c>
       <c r="M17">
-        <v>14.83027936434115</v>
+        <v>17.68476344678209</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.05724240526722</v>
+        <v>20.8907887193066</v>
       </c>
       <c r="C18">
-        <v>16.35184034154476</v>
+        <v>8.890021089746281</v>
       </c>
       <c r="D18">
-        <v>11.7095029516629</v>
+        <v>10.30251468846846</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.04761242539915</v>
+        <v>55.54408835297766</v>
       </c>
       <c r="G18">
-        <v>2.041925453209444</v>
+        <v>3.707957294272145</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.931619398016505</v>
+        <v>10.49592089572689</v>
       </c>
       <c r="M18">
-        <v>14.61701115720702</v>
+        <v>17.67581375696734</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.92501151914452</v>
+        <v>20.8668885344058</v>
       </c>
       <c r="C19">
-        <v>16.2746598618873</v>
+        <v>8.857245969547161</v>
       </c>
       <c r="D19">
-        <v>11.6710281907228</v>
+        <v>10.29139552600496</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.72850404432782</v>
+        <v>55.44144747596821</v>
       </c>
       <c r="G19">
-        <v>2.04331262170794</v>
+        <v>3.708341960690054</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.923057365256119</v>
+        <v>10.49608920266774</v>
       </c>
       <c r="M19">
-        <v>14.54450723429898</v>
+        <v>17.67286704378674</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.51833459826018</v>
+        <v>20.9748384438365</v>
       </c>
       <c r="C20">
-        <v>16.62131553976129</v>
+        <v>9.003753029162578</v>
       </c>
       <c r="D20">
-        <v>11.84420363604466</v>
+        <v>10.34135499911259</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.16210114670035</v>
+        <v>55.90236878797702</v>
       </c>
       <c r="G20">
-        <v>2.037062120323434</v>
+        <v>3.706620601591434</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.961884204231936</v>
+        <v>10.49542049440787</v>
       </c>
       <c r="M20">
-        <v>14.86961301563</v>
+        <v>17.68645946386366</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.48456023771836</v>
+        <v>21.34408822495792</v>
       </c>
       <c r="C21">
-        <v>17.77681842869865</v>
+        <v>9.478757800969472</v>
       </c>
       <c r="D21">
-        <v>12.42747501267319</v>
+        <v>10.50777942089513</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>80.94221125036118</v>
+        <v>57.4328044426586</v>
       </c>
       <c r="G21">
-        <v>2.015861441859108</v>
+        <v>3.701005803191506</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.097797844226456</v>
+        <v>10.49472554860768</v>
       </c>
       <c r="M21">
-        <v>15.94307418165769</v>
+        <v>17.73791663178153</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.75345414377045</v>
+        <v>21.58983139639797</v>
       </c>
       <c r="C22">
-        <v>18.52846737407432</v>
+        <v>9.776350810733279</v>
       </c>
       <c r="D22">
-        <v>12.81091201742104</v>
+        <v>10.61539895455773</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.04748173091541</v>
+        <v>58.41813180140691</v>
       </c>
       <c r="G22">
-        <v>2.001777241119699</v>
+        <v>3.697461100968979</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.191061737467648</v>
+        <v>10.49542743960165</v>
       </c>
       <c r="M22">
-        <v>16.63278970917322</v>
+        <v>17.7758347256989</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.07740093815359</v>
+        <v>21.45829945857097</v>
       </c>
       <c r="C23">
-        <v>18.12738440323491</v>
+        <v>9.618695317334266</v>
       </c>
       <c r="D23">
-        <v>12.60597352650705</v>
+        <v>10.55807058195624</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.39123811448142</v>
+        <v>57.89369037300751</v>
       </c>
       <c r="G23">
-        <v>2.009320774794489</v>
+        <v>3.699341603145745</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.140852956646346</v>
+        <v>10.49494708806685</v>
       </c>
       <c r="M23">
-        <v>16.26560508492154</v>
+        <v>17.75520663089837</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.48586415637481</v>
+        <v>20.96888451133616</v>
       </c>
       <c r="C24">
-        <v>16.6023211161483</v>
+        <v>8.995772393056962</v>
       </c>
       <c r="D24">
-        <v>11.83469087813988</v>
+        <v>10.33861664450927</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.08353096705228</v>
+        <v>55.87712211442469</v>
       </c>
       <c r="G24">
-        <v>2.037405937581261</v>
+        <v>3.706714493430338</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.95973231383584</v>
+        <v>10.49545137772839</v>
       </c>
       <c r="M24">
-        <v>14.8518357464446</v>
+        <v>17.68569119562211</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.5960768485041</v>
+        <v>20.46295055549833</v>
       </c>
       <c r="C25">
-        <v>14.92203337557886</v>
+        <v>8.268723758565468</v>
       </c>
       <c r="D25">
-        <v>11.00544576077684</v>
+        <v>10.09749667874531</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.14937355030713</v>
+        <v>53.64685648519665</v>
       </c>
       <c r="G25">
-        <v>2.067200767886561</v>
+        <v>3.715209191032927</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.781196701977121</v>
+        <v>10.5009613730435</v>
       </c>
       <c r="M25">
-        <v>13.3781825338782</v>
+        <v>17.62927539008076</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_78/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_78/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.11250033429948</v>
+        <v>21.3655703751601</v>
       </c>
       <c r="C2">
-        <v>7.686099520365063</v>
+        <v>13.6370209723977</v>
       </c>
       <c r="D2">
-        <v>9.91673279530918</v>
+        <v>10.39184306705783</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>51.96771528803502</v>
+        <v>63.89410302872373</v>
       </c>
       <c r="G2">
-        <v>3.721937179831112</v>
+        <v>2.089135095096112</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.50928741664509</v>
+        <v>6.662245803926943</v>
       </c>
       <c r="M2">
-        <v>17.60381300096119</v>
+        <v>12.64202569506637</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.89029251911209</v>
+        <v>19.78206964106984</v>
       </c>
       <c r="C3">
-        <v>7.261925906960638</v>
+        <v>12.72970651489002</v>
       </c>
       <c r="D3">
-        <v>9.79250606301763</v>
+        <v>9.972536799122766</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>50.81244701226309</v>
+        <v>60.22953978476008</v>
       </c>
       <c r="G3">
-        <v>3.726795783208224</v>
+        <v>2.10416489918423</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.51759085995673</v>
+        <v>6.588650691900433</v>
       </c>
       <c r="M3">
-        <v>17.5966123249732</v>
+        <v>12.15371452074594</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.76188042726407</v>
+        <v>18.81681226278804</v>
       </c>
       <c r="C4">
-        <v>6.987130205838539</v>
+        <v>12.15291063504858</v>
       </c>
       <c r="D4">
-        <v>9.715481633371384</v>
+        <v>9.713111544908347</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>50.09666155632586</v>
+        <v>57.92790677361695</v>
       </c>
       <c r="G4">
-        <v>3.729927666195253</v>
+        <v>2.11352019237894</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.52400068067035</v>
+        <v>6.546705164855453</v>
       </c>
       <c r="M4">
-        <v>17.59715256206053</v>
+        <v>11.85936052299939</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.7116376339409</v>
+        <v>18.45251610268875</v>
       </c>
       <c r="C5">
-        <v>6.871564464818217</v>
+        <v>11.91269512784915</v>
       </c>
       <c r="D5">
-        <v>9.683920851796305</v>
+        <v>9.606884069511892</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>49.80368241409713</v>
+        <v>56.97715372957399</v>
       </c>
       <c r="G5">
-        <v>3.731241490870063</v>
+        <v>2.117370442222237</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.52694238790338</v>
+        <v>6.530397734277951</v>
       </c>
       <c r="M5">
-        <v>17.598620047257</v>
+        <v>11.740852810049</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.70342274772607</v>
+        <v>18.39172400196656</v>
       </c>
       <c r="C6">
-        <v>6.85215924131874</v>
+        <v>11.87248995949512</v>
       </c>
       <c r="D6">
-        <v>9.678670231287166</v>
+        <v>9.589214248223767</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>49.75496533927074</v>
+        <v>56.81851658040651</v>
       </c>
       <c r="G6">
-        <v>3.731461923778028</v>
+        <v>2.118012224517797</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.52745076178379</v>
+        <v>6.527736524355013</v>
       </c>
       <c r="M6">
-        <v>17.59893903274946</v>
+        <v>11.72126430541667</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.76119430213284</v>
+        <v>18.81191954678911</v>
       </c>
       <c r="C7">
-        <v>6.985586120778284</v>
+        <v>12.1496921784217</v>
       </c>
       <c r="D7">
-        <v>9.715056672375741</v>
+        <v>9.711680992249317</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>50.092715119628</v>
+        <v>57.9151361204175</v>
       </c>
       <c r="G7">
-        <v>3.729945232601296</v>
+        <v>2.11357195733614</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.52403901900063</v>
+        <v>6.54648209348194</v>
       </c>
       <c r="M7">
-        <v>17.59716730364183</v>
+        <v>11.85775633419747</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.03426025848445</v>
+        <v>20.82717666527441</v>
       </c>
       <c r="C8">
-        <v>7.542835618441038</v>
+        <v>13.32812827752387</v>
       </c>
       <c r="D8">
-        <v>9.874064151512286</v>
+        <v>10.24765999363618</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>51.57091136640102</v>
+        <v>62.64128273454823</v>
       </c>
       <c r="G8">
-        <v>3.723581670176031</v>
+        <v>2.094294834288139</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.51187818208165</v>
+        <v>6.636178814848526</v>
       </c>
       <c r="M8">
-        <v>17.60030054677172</v>
+        <v>12.47255387942091</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.63015704556861</v>
+        <v>24.58423790489886</v>
       </c>
       <c r="C9">
-        <v>8.520993245698568</v>
+        <v>15.49445399892328</v>
       </c>
       <c r="D9">
-        <v>10.17925809528017</v>
+        <v>11.28496880913762</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>54.40460394223113</v>
+        <v>71.5065023354118</v>
       </c>
       <c r="G9">
-        <v>3.712274693924177</v>
+        <v>2.057189964645871</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.49844196832769</v>
+        <v>6.83927811057233</v>
       </c>
       <c r="M9">
-        <v>17.6457874711233</v>
+        <v>13.80768795601784</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.10014426433285</v>
+        <v>27.19547276738435</v>
       </c>
       <c r="C10">
-        <v>9.169186193110958</v>
+        <v>17.01805546797528</v>
       </c>
       <c r="D10">
-        <v>10.39855380416054</v>
+        <v>12.04349249023501</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>56.4292538686699</v>
+        <v>77.80347655788978</v>
       </c>
       <c r="G10">
-        <v>3.704671017659172</v>
+        <v>2.029845778000197</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.49492369243238</v>
+        <v>7.007459318712304</v>
       </c>
       <c r="M10">
-        <v>17.70310477664869</v>
+        <v>15.2399626421591</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.31989421058617</v>
+        <v>28.35818675537562</v>
       </c>
       <c r="C11">
-        <v>9.448727180373487</v>
+        <v>17.7022246412678</v>
       </c>
       <c r="D11">
-        <v>10.49706062845613</v>
+        <v>12.38957661475016</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>57.33447581630631</v>
+        <v>80.6337582380834</v>
       </c>
       <c r="G11">
-        <v>3.701362336983529</v>
+        <v>2.017246744525119</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.49470318562387</v>
+        <v>7.088740497275338</v>
       </c>
       <c r="M11">
-        <v>17.73433177721548</v>
+        <v>15.87425527782373</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.4038737753455</v>
+        <v>28.79562787991737</v>
       </c>
       <c r="C12">
-        <v>9.552378483493515</v>
+        <v>17.96063150852235</v>
       </c>
       <c r="D12">
-        <v>10.53416720122992</v>
+        <v>12.52098982516524</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>57.67472618076892</v>
+        <v>81.70211842963866</v>
       </c>
       <c r="G12">
-        <v>3.700130851863539</v>
+        <v>2.012438146868524</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.49481803799345</v>
+        <v>7.120273792485267</v>
       </c>
       <c r="M12">
-        <v>17.74689290048116</v>
+        <v>16.11237203029894</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.38575469456608</v>
+        <v>28.70153004264385</v>
       </c>
       <c r="C13">
-        <v>9.530153370086971</v>
+        <v>17.90499777134753</v>
       </c>
       <c r="D13">
-        <v>10.52618459357551</v>
+        <v>12.49266766753323</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>57.60156406398627</v>
+        <v>81.47215042650988</v>
       </c>
       <c r="G13">
-        <v>3.700395123327609</v>
+        <v>2.013475701984548</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.49478448259094</v>
+        <v>7.113447779184036</v>
       </c>
       <c r="M13">
-        <v>17.74415498527406</v>
+        <v>16.06117437663481</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.32678844781221</v>
+        <v>28.39422751481789</v>
       </c>
       <c r="C14">
-        <v>9.457298820022446</v>
+        <v>17.72349345800828</v>
       </c>
       <c r="D14">
-        <v>10.50011742221845</v>
+        <v>12.40037944390929</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>57.36252072913862</v>
+        <v>80.72171084219745</v>
       </c>
       <c r="G14">
-        <v>3.701260593227172</v>
+        <v>2.016851986411809</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.4947086599773</v>
+        <v>7.091319215567515</v>
       </c>
       <c r="M14">
-        <v>17.7353504662911</v>
+        <v>15.89388429855289</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.29076685281508</v>
+        <v>28.20564974330963</v>
       </c>
       <c r="C15">
-        <v>9.412386186359567</v>
+        <v>17.61224948757987</v>
       </c>
       <c r="D15">
-        <v>10.48412456284185</v>
+        <v>12.34390424768751</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>57.2157617603777</v>
+        <v>80.26165401461245</v>
       </c>
       <c r="G15">
-        <v>3.701793505713792</v>
+        <v>2.018914675785475</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.49468804446876</v>
+        <v>7.077865245278993</v>
       </c>
       <c r="M15">
-        <v>17.73005315057601</v>
+        <v>15.7911572552968</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.08589508882798</v>
+        <v>27.11904213803351</v>
       </c>
       <c r="C16">
-        <v>9.150609000054907</v>
+        <v>16.97321312309724</v>
       </c>
       <c r="D16">
-        <v>10.39208960051328</v>
+        <v>12.02091244224479</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>56.36975442279991</v>
+        <v>77.61794182645556</v>
       </c>
       <c r="G16">
-        <v>3.704890257163702</v>
+        <v>2.030664750170072</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.49496586564621</v>
+        <v>7.002248924918546</v>
       </c>
       <c r="M16">
-        <v>17.7011673164892</v>
+        <v>15.19819586100408</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.96167262937741</v>
+        <v>26.4464952149789</v>
       </c>
       <c r="C17">
-        <v>8.986090426329033</v>
+        <v>16.57929488465729</v>
       </c>
       <c r="D17">
-        <v>10.33529712787448</v>
+        <v>11.82316253627206</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>55.84651463153186</v>
+        <v>75.98828560479862</v>
       </c>
       <c r="G17">
-        <v>3.70682838197104</v>
+        <v>2.037822528182222</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.49548970112106</v>
+        <v>6.95712740983812</v>
       </c>
       <c r="M17">
-        <v>17.68476344678209</v>
+        <v>14.83027936434109</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.8907887193066</v>
+        <v>26.05724240526709</v>
       </c>
       <c r="C18">
-        <v>8.890021089746281</v>
+        <v>16.3518403415448</v>
       </c>
       <c r="D18">
-        <v>10.30251468846846</v>
+        <v>11.70950295166284</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>55.54408835297766</v>
+        <v>75.04761242539867</v>
       </c>
       <c r="G18">
-        <v>3.707957294272145</v>
+        <v>2.041925453209418</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.49592089572689</v>
+        <v>6.931619398016581</v>
       </c>
       <c r="M18">
-        <v>17.67581375696734</v>
+        <v>14.61701115720688</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.8668885344058</v>
+        <v>25.92501151914442</v>
       </c>
       <c r="C19">
-        <v>8.857245969547161</v>
+        <v>16.27465986188764</v>
       </c>
       <c r="D19">
-        <v>10.29139552600496</v>
+        <v>11.67102819072279</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>55.44144747596821</v>
+        <v>74.72850404432772</v>
       </c>
       <c r="G19">
-        <v>3.708341960690054</v>
+        <v>2.043312621707949</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.49608920266774</v>
+        <v>6.923057365256022</v>
       </c>
       <c r="M19">
-        <v>17.67286704378674</v>
+        <v>14.54450723429896</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.9748384438365</v>
+        <v>26.51833459826015</v>
       </c>
       <c r="C20">
-        <v>9.003753029162578</v>
+        <v>16.62131553976117</v>
       </c>
       <c r="D20">
-        <v>10.34135499911259</v>
+        <v>11.84420363604474</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>55.90236878797702</v>
+        <v>76.16210114670028</v>
       </c>
       <c r="G20">
-        <v>3.706620601591434</v>
+        <v>2.037062120323184</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.49542049440787</v>
+        <v>6.961884204232041</v>
       </c>
       <c r="M20">
-        <v>17.68645946386366</v>
+        <v>14.86961301562994</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.34408822495792</v>
+        <v>28.48456023771854</v>
       </c>
       <c r="C21">
-        <v>9.478757800969472</v>
+        <v>17.77681842869893</v>
       </c>
       <c r="D21">
-        <v>10.50777942089513</v>
+        <v>12.42747501267326</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>57.4328044426586</v>
+        <v>80.94221125036108</v>
       </c>
       <c r="G21">
-        <v>3.701005803191506</v>
+        <v>2.015861441859228</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.49472554860768</v>
+        <v>7.097797844226508</v>
       </c>
       <c r="M21">
-        <v>17.73791663178153</v>
+        <v>15.94307418165778</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.58983139639797</v>
+        <v>29.75345414377036</v>
       </c>
       <c r="C22">
-        <v>9.776350810733279</v>
+        <v>18.52846737407436</v>
       </c>
       <c r="D22">
-        <v>10.61539895455773</v>
+        <v>12.81091201742104</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>58.41813180140691</v>
+        <v>84.04748173091534</v>
       </c>
       <c r="G22">
-        <v>3.697461100968979</v>
+        <v>2.001777241119818</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.49542743960165</v>
+        <v>7.191061737467634</v>
       </c>
       <c r="M22">
-        <v>17.7758347256989</v>
+        <v>16.6327897091732</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.45829945857097</v>
+        <v>29.07740093815374</v>
       </c>
       <c r="C23">
-        <v>9.618695317334266</v>
+        <v>18.12738440323503</v>
       </c>
       <c r="D23">
-        <v>10.55807058195624</v>
+        <v>12.60597352650719</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>57.89369037300751</v>
+        <v>82.39123811448239</v>
       </c>
       <c r="G23">
-        <v>3.699341603145745</v>
+        <v>2.009320774794642</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.49494708806685</v>
+        <v>7.140852956646366</v>
       </c>
       <c r="M23">
-        <v>17.75520663089837</v>
+        <v>16.26560508492162</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.96888451133616</v>
+        <v>26.48586415637486</v>
       </c>
       <c r="C24">
-        <v>8.995772393056962</v>
+        <v>16.60232111614821</v>
       </c>
       <c r="D24">
-        <v>10.33861664450927</v>
+        <v>11.83469087813989</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>55.87712211442469</v>
+        <v>76.08353096705244</v>
       </c>
       <c r="G24">
-        <v>3.706714493430338</v>
+        <v>2.037405937581409</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.49545137772839</v>
+        <v>6.959732313835882</v>
       </c>
       <c r="M24">
-        <v>17.68569119562211</v>
+        <v>14.8518357464446</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.46295055549833</v>
+        <v>23.59607684850408</v>
       </c>
       <c r="C25">
-        <v>8.268723758565468</v>
+        <v>14.92203337557881</v>
       </c>
       <c r="D25">
-        <v>10.09749667874531</v>
+        <v>11.00544576077673</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>53.64685648519665</v>
+        <v>69.14937355030665</v>
       </c>
       <c r="G25">
-        <v>3.715209191032927</v>
+        <v>2.067200767886573</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.5009613730435</v>
+        <v>6.781196701977161</v>
       </c>
       <c r="M25">
-        <v>17.62927539008076</v>
+        <v>13.37818253387823</v>
       </c>
       <c r="N25">
         <v>0</v>
